--- a/datasets/01_coding_01_independent.xlsx
+++ b/datasets/01_coding_01_independent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HYEM'S\GraduatedSchool\PROJECTS\MyProjects\GraduationThesis\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09740A6-F4C7-4914-87F4-906454DBE205}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81A4BA3-0FC2-4261-B0BA-20003185A37C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9348" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9348" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -2245,7 +2245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2326,22 +2326,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -44138,8 +44139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2ADF82-E82F-4524-ADFF-E3484DFB6979}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -44238,35 +44239,35 @@
     </row>
     <row r="5" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="6"/>
       <c r="E5" s="40" t="s">
         <v>321</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="6"/>
       <c r="H5" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="I5" s="41"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="9"/>
       <c r="K5" s="40" t="s">
         <v>323</v>
       </c>
-      <c r="L5" s="41"/>
+      <c r="L5" s="39"/>
       <c r="M5" s="6"/>
       <c r="N5" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="O5" s="41"/>
+      <c r="O5" s="39"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="43" t="s">
+      <c r="Q5" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="R5" s="41"/>
+      <c r="R5" s="39"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
     </row>
@@ -44507,19 +44508,19 @@
         <v>6</v>
       </c>
       <c r="P11" s="9"/>
-      <c r="Q11" s="38" t="s">
+      <c r="Q11" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="R11" s="39"/>
+      <c r="R11" s="42"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
     </row>
     <row r="12" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
       <c r="F12" s="6"/>
@@ -44558,7 +44559,7 @@
       <c r="E13" s="40" t="s">
         <v>353</v>
       </c>
-      <c r="F13" s="41"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="6"/>
       <c r="H13" s="12" t="s">
         <v>354</v>
@@ -44573,7 +44574,7 @@
       <c r="N13" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="O13" s="41"/>
+      <c r="O13" s="39"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="22" t="s">
         <v>356</v>
@@ -44609,7 +44610,9 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="6"/>
+      <c r="M14" s="6">
+        <v>1</v>
+      </c>
       <c r="N14" s="17" t="s">
         <v>359</v>
       </c>
@@ -44651,7 +44654,9 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="6"/>
+      <c r="M15" s="6">
+        <v>2</v>
+      </c>
       <c r="N15" s="12" t="s">
         <v>363</v>
       </c>
@@ -44689,7 +44694,9 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="6"/>
+      <c r="M16" s="6">
+        <v>2</v>
+      </c>
       <c r="N16" s="12" t="s">
         <v>366</v>
       </c>
@@ -44727,7 +44734,9 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="6"/>
+      <c r="M17" s="44">
+        <v>2</v>
+      </c>
       <c r="N17" s="12" t="s">
         <v>369</v>
       </c>
@@ -44755,7 +44764,9 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="6"/>
+      <c r="M18" s="44">
+        <v>3</v>
+      </c>
       <c r="N18" s="36" t="s">
         <v>426</v>
       </c>
@@ -44770,10 +44781,10 @@
     </row>
     <row r="19" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="C19" s="41"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6"/>
@@ -44887,8 +44898,8 @@
         <v>4</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
       <c r="G23" s="6"/>
       <c r="H23" s="7"/>
       <c r="I23" s="6"/>
@@ -44988,18 +44999,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
